--- a/app/(protected2)/fava/components/jetstream/docs/412 mockup for zug yeg 8.xlsx
+++ b/app/(protected2)/fava/components/jetstream/docs/412 mockup for zug yeg 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/app/(protected2)/fava/components/jetstream/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECC9D32-8777-C148-BCE7-A3342CC8B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C00678-60A2-BF40-8D76-F9B62DF34F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{2DB67D95-0D4A-F544-A67F-8B8C1F88D901}"/>
   </bookViews>
@@ -2051,8 +2051,8 @@
   <dimension ref="A1:BD577"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
